--- a/data/trans_camb/P16A02-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>7.275999979578088</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.169373685649974</v>
+        <v>7.169373685649971</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5.327526684291469</v>
@@ -664,7 +664,7 @@
         <v>5.976390924954372</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>9.535704444716067</v>
+        <v>9.535704444716062</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.307252014814239</v>
+        <v>-3.367658397873527</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.831543102239078</v>
+        <v>2.732596975817169</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.631881090680653</v>
+        <v>2.582416803854309</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6082119033961237</v>
+        <v>-1.201772836915432</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.578201640769494</v>
+        <v>-3.333377197474701</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.061658786350944</v>
+        <v>4.356571215552744</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.203676993415204</v>
+        <v>-1.005103556731006</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.051898736783503</v>
+        <v>2.192249392153783</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.088928861649341</v>
+        <v>5.463148204493381</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.191387331075788</v>
+        <v>5.628239709384883</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.78154407274276</v>
+        <v>12.78093063964635</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.61251450439026</v>
+        <v>11.71138645828459</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.67260936073521</v>
+        <v>11.93132505788222</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.024463492365422</v>
+        <v>9.695477859531705</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>16.60769372418818</v>
+        <v>16.1159978466277</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.605317411869308</v>
+        <v>7.050195107533186</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.967074159575828</v>
+        <v>9.982128120184436</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.920986230062</v>
+        <v>12.79722186170941</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.588451178551555</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.5798277084439835</v>
+        <v>0.5798277084439832</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2615523279733941</v>
@@ -760,7 +760,7 @@
         <v>0.1668895480427766</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.534655160971063</v>
+        <v>0.5346551609710628</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1805717336705239</v>
@@ -769,7 +769,7 @@
         <v>0.3853270907547825</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.6148134046314822</v>
+        <v>0.6148134046314818</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2936771377363506</v>
+        <v>-0.2386976063415643</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.181564925440543</v>
+        <v>0.1861473349730328</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1668070607893472</v>
+        <v>0.1770255122233441</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.02776175158362727</v>
+        <v>-0.05702614164886965</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1521048771411758</v>
+        <v>-0.1438636445454639</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2028995027017902</v>
+        <v>0.1626376610443147</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0708565053934451</v>
+        <v>-0.06067617131985929</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1125159692293573</v>
+        <v>0.1295998141831017</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3443113903480778</v>
+        <v>0.3018105993689115</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5039209400003362</v>
+        <v>0.5500811544008025</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.191339009018316</v>
+        <v>1.242568752907283</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.115084715214661</v>
+        <v>1.15599194832033</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7004688099911899</v>
+        <v>0.6894166816508052</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5040813123280552</v>
+        <v>0.5701136508840814</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9906573200681128</v>
+        <v>0.9535086991974646</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4760530913847032</v>
+        <v>0.5141295637965047</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7247353019701459</v>
+        <v>0.7252350930266895</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.951964502909612</v>
+        <v>0.9356822116335392</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.834543221915006</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.047169710532686</v>
+        <v>4.047169710532684</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>9.591066158705816</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.023354351698676</v>
+        <v>-3.596508038048606</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.834929875036265</v>
+        <v>-3.921663626335123</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.007963168555552</v>
+        <v>-1.383362278460899</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.495594953233317</v>
+        <v>2.679510991188378</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.205100424259497</v>
+        <v>-2.801878082049839</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.141910147105805</v>
+        <v>3.084058589919073</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7636772464458729</v>
+        <v>0.8199254681221686</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.558171125569216</v>
+        <v>-1.897291315425266</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.048786699930807</v>
+        <v>2.314014063548815</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.898752924509562</v>
+        <v>7.447540365619394</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.548905120493787</v>
+        <v>7.734779581444092</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.435534074446513</v>
+        <v>8.772482228663163</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.66019304722503</v>
+        <v>17.19076081319715</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.887585043195253</v>
+        <v>9.307236883002364</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.60790081843952</v>
+        <v>14.89226523505986</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.485412343517835</v>
+        <v>9.445300233893304</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.833849620326866</v>
+        <v>6.412993999065826</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.17328602216928</v>
+        <v>9.952213369726094</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1169806506047607</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2580699872264602</v>
+        <v>0.25806998722646</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4239180074610355</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1671298098958949</v>
+        <v>-0.1823285622663438</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2097939619958331</v>
+        <v>-0.2173154059578397</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.06015212957379989</v>
+        <v>-0.07835301126802696</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1046758998949271</v>
+        <v>0.1016960239210848</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1308087897742837</v>
+        <v>-0.1093560449442129</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1211825708944306</v>
+        <v>0.124071006964108</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0385116094562015</v>
+        <v>0.03277183337279536</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.07258159387622348</v>
+        <v>-0.09654687776894043</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.09121438797675029</v>
+        <v>0.1065985349180229</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6452122451211134</v>
+        <v>0.5728260252018276</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5832212392878963</v>
+        <v>0.5970631267373525</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7279200514428781</v>
+        <v>0.6757764451257618</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7807568730274799</v>
+        <v>0.8636647752673954</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5362871867738507</v>
+        <v>0.4896789432433442</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7603771764465426</v>
+        <v>0.770332485797488</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5680355559239346</v>
+        <v>0.563552708423789</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4052826485120086</v>
+        <v>0.3717377287323761</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6107879078915612</v>
+        <v>0.5806114030965031</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.74467917219424</v>
+        <v>3.420152482063346</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.545724811558289</v>
+        <v>2.320203307016833</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.510300454017226</v>
+        <v>10.19183748472671</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.211493050842867</v>
+        <v>-3.528763693285061</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.844223557681053</v>
+        <v>2.695290495706011</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>13.96891510119674</v>
+        <v>14.20578197384007</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.046590924559071</v>
+        <v>3.816297734353527</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.491079242292103</v>
+        <v>4.52044379797282</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>13.1905449007461</v>
+        <v>13.22831154916789</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.49655807196971</v>
+        <v>12.40297943998833</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.92457226807495</v>
+        <v>11.50102235503757</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19.78306591391732</v>
+        <v>20.34657879964298</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.22456594495302</v>
+        <v>13.57427381657746</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>22.01576600773169</v>
+        <v>23.58990865244276</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>31.68029568318103</v>
+        <v>32.43231361704277</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.10149322137971</v>
+        <v>11.55601836803404</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.68556427549903</v>
+        <v>12.84548744060978</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>21.80122609320973</v>
+        <v>22.32441465358864</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2536374541496</v>
+        <v>0.1983449682051258</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1648661785598104</v>
+        <v>0.1515226991019439</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6637028650281068</v>
+        <v>0.6710808286506729</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1458866307352562</v>
+        <v>-0.1300532552867602</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09342047604566676</v>
+        <v>0.0885104888407523</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4733671011170106</v>
+        <v>0.4531209148805728</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2412656983954943</v>
+        <v>0.2171401207924734</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2630277263960086</v>
+        <v>0.2559222276019227</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.7636001412683149</v>
+        <v>0.7557352725491778</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.157526176638522</v>
+        <v>1.131259096627589</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.093166291344517</v>
+        <v>1.052493097340767</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.827723874303601</v>
+        <v>1.900782531919577</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7391036740942911</v>
+        <v>0.7346491466231694</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.154018809342674</v>
+        <v>1.277076764860406</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.71933699427611</v>
+        <v>1.766766440436374</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9228732756053568</v>
+        <v>0.8769951198632246</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9125495328562647</v>
+        <v>0.9602643749179985</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.59626713464497</v>
+        <v>1.693507719322448</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>3.66032749896201</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12.0208719144984</v>
+        <v>12.02087191449839</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>8.251521518015426</v>
@@ -1297,7 +1297,7 @@
         <v>7.01928144381001</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>17.13161146907911</v>
+        <v>17.1316114690791</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>5.902388175339198</v>
@@ -1306,7 +1306,7 @@
         <v>5.350166910989981</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>14.59166803880799</v>
+        <v>14.591668038808</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4847315189672757</v>
+        <v>1.05059789354</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9679142942277431</v>
+        <v>0.7231206916978302</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.611762007989595</v>
+        <v>8.57997869289385</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.658785281854402</v>
+        <v>3.660133337195101</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.703430385744169</v>
+        <v>2.313941814780968</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>12.85109583775013</v>
+        <v>13.14395221874592</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.223014863089899</v>
+        <v>3.234364389892757</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.87972204941421</v>
+        <v>2.746302686871221</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>12.00646752932635</v>
+        <v>12.04890074458085</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.049095066710032</v>
+        <v>7.510853076644515</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.070120955611412</v>
+        <v>6.889048739149469</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.4378180066689</v>
+        <v>15.66436447708738</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.74926727343086</v>
+        <v>13.31304030598928</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.66724957026928</v>
+        <v>11.58716994294767</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.07971663574348</v>
+        <v>21.3404781030284</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.583906796141441</v>
+        <v>8.71421583470468</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.818810828718938</v>
+        <v>8.046906861496359</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.3301557117515</v>
+        <v>17.45404586736193</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2244313037489924</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7370542544992424</v>
+        <v>0.7370542544992421</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.378930842698558</v>
@@ -1402,7 +1402,7 @@
         <v>0.3223432462527216</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7867271456045051</v>
+        <v>0.7867271456045049</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3223759566921439</v>
@@ -1411,7 +1411,7 @@
         <v>0.2922147993585543</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.796966042219779</v>
+        <v>0.7969660422197796</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.02710752885394714</v>
+        <v>0.06090798957571242</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.04605994807704759</v>
+        <v>0.04115322043543221</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4933405916243225</v>
+        <v>0.4894525106247524</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1467284628787681</v>
+        <v>0.1505674926661365</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1053215346826748</v>
+        <v>0.09306726819680608</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5348371937366413</v>
+        <v>0.5345857548904221</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1680268557595453</v>
+        <v>0.1655339608302677</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1474243718180614</v>
+        <v>0.1388532651353667</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6024965442912164</v>
+        <v>0.6287566665263502</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4742557794073972</v>
+        <v>0.5067914399595131</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4720338185371129</v>
+        <v>0.452189359381865</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.035284749008196</v>
+        <v>1.040669965340783</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6299447536303653</v>
+        <v>0.6652973351167084</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5949144151944179</v>
+        <v>0.588884683787003</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.11016654747475</v>
+        <v>1.102341750699132</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5088630589978097</v>
+        <v>0.5081230545064863</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4505193536655177</v>
+        <v>0.4722662049988038</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.025102152390686</v>
+        <v>1.034085445217773</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>9.082093266901264</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>20.96641911829313</v>
+        <v>20.96641911829315</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>8.068147970796383</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.534457779573648</v>
+        <v>-1.38892555713177</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.1298449234337068</v>
+        <v>-0.4163189995254802</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.859906743222512</v>
+        <v>5.940881490693592</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.887520458336859</v>
+        <v>6.253894282666741</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.909085660450649</v>
+        <v>3.44838989603288</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>16.18365477015008</v>
+        <v>15.46982244791588</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.370341194164733</v>
+        <v>4.443966935100645</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.523522981241264</v>
+        <v>2.230985610149597</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>13.14942941141918</v>
+        <v>12.87718817769509</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.625688369968659</v>
+        <v>8.903509702853251</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.374395316601852</v>
+        <v>9.497629712341119</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16.5166810876992</v>
+        <v>16.71711899785598</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.54017506060443</v>
+        <v>16.7020708931089</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.41828327220112</v>
+        <v>14.13950832735434</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>25.92401463042763</v>
+        <v>25.11397873482896</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.94911594607481</v>
+        <v>12.32020968211519</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.572835175224444</v>
+        <v>9.80338510247908</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>20.07992808491266</v>
+        <v>20.43039204541717</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.3434809995357703</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.8185656118424689</v>
+        <v>0.8185656118424685</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4196897208019948</v>
@@ -1616,7 +1616,7 @@
         <v>0.3361505518028104</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7760186059339937</v>
+        <v>0.7760186059339942</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.366222444910221</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.0927318378492978</v>
+        <v>-0.07378837769489061</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.01225371329953198</v>
+        <v>-0.02592930722387932</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3341177847371462</v>
+        <v>0.3318581022924732</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1875103820848535</v>
+        <v>0.2053922237210883</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1240402837571841</v>
+        <v>0.1121612913907934</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5266716962039615</v>
+        <v>0.5088050904704755</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1760151432260474</v>
+        <v>0.1744487122588136</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1055267208414569</v>
+        <v>0.09209316105189368</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5313468590493109</v>
+        <v>0.529937229213706</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.781633956260366</v>
+        <v>0.8008255411931704</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8336419430546098</v>
+        <v>0.8160180927967213</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.534733770854372</v>
+        <v>1.460439643577761</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6808023383120353</v>
+        <v>0.6936832765747234</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6033156205799604</v>
+        <v>0.5860915495840739</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.095516196454476</v>
+        <v>1.038427616850123</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6004523944014036</v>
+        <v>0.6115543068072655</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4951859769014967</v>
+        <v>0.4945959435289216</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9925858276296677</v>
+        <v>1.03905837535375</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>7.83614849026662</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>12.67207563871056</v>
+        <v>12.67207563871055</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>9.416858653745317</v>
@@ -1734,7 +1734,7 @@
         <v>7.362365842947169</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>10.48992427462701</v>
+        <v>10.489924274627</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.803927228667717</v>
+        <v>-2.437055914643173</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>2.547214375151689</v>
+        <v>2.132864592900194</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.945059459124822</v>
+        <v>-0.3824920019660906</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7.799874159689884</v>
+        <v>7.393958109698029</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>4.296437162578793</v>
+        <v>4.236570685020198</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>8.826250799295398</v>
+        <v>8.601924780330647</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.070121934870812</v>
+        <v>6.253590500552619</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>3.988553969003526</v>
+        <v>4.264181269602294</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>7.155159334794183</v>
+        <v>7.149887204264411</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.331327145901803</v>
+        <v>5.546221997539212</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>12.25019410677024</v>
+        <v>12.04022272459644</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12.43621173949721</v>
+        <v>11.97249679326438</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15.5824719919256</v>
+        <v>15.19272759291476</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.7006483040445</v>
+        <v>12.09089562299021</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>16.77862405960276</v>
+        <v>16.77980621106908</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>12.48607555517667</v>
+        <v>12.68813498784641</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>10.39746218990402</v>
+        <v>10.69055772652798</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>13.97176539259769</v>
+        <v>14.16263631564863</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.3142925986626359</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5082521838230649</v>
+        <v>0.5082521838230645</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4422274512460448</v>
@@ -1839,7 +1839,7 @@
         <v>0.3457459012164887</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.4926199538831667</v>
+        <v>0.4926199538831664</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3694373142123941</v>
+        <v>-0.3322001781300178</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.2860224426493562</v>
+        <v>0.2418436452842562</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1638868621618028</v>
+        <v>-0.1238843694859414</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2876262604038408</v>
+        <v>0.2694991826685778</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1623377467957685</v>
+        <v>0.1597115782954984</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3312224564346665</v>
+        <v>0.3207454182390449</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2659945439756681</v>
+        <v>0.2850088353927224</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1789314599750868</v>
+        <v>0.1913606281730366</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.3124904506945858</v>
+        <v>0.3160302776386328</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.218508872159061</v>
+        <v>1.313819387499226</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3.113100444883943</v>
+        <v>2.664495603090539</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.786193482482469</v>
+        <v>2.644890548877086</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6696295680761252</v>
+        <v>0.6449169228023197</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4971715333880152</v>
+        <v>0.520898745182377</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7168786401610738</v>
+        <v>0.7173872890586614</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6226387770339635</v>
+        <v>0.6381990853066983</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.5353458081953741</v>
+        <v>0.5399195926113436</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.694777992449261</v>
+        <v>0.6972198519810868</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>7.180814364759036</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>15.31246426006543</v>
+        <v>15.31246426006542</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>6.852128510672503</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.233596354055851</v>
+        <v>2.139918728204502</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>3.226757199184792</v>
+        <v>3.011383618060822</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8.041324278305842</v>
+        <v>7.946757946122718</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7.51875729353451</v>
+        <v>7.501966961793836</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>5.040822554821375</v>
+        <v>5.001602253634506</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>13.30490439432684</v>
+        <v>13.32269451749263</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>5.344060380703826</v>
+        <v>5.318787068126439</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>4.70229324986623</v>
+        <v>4.724066571894403</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>11.41856594506084</v>
+        <v>11.46886220210373</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.703006772005742</v>
+        <v>5.643945398391853</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.749570561635481</v>
+        <v>6.679699624983355</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>11.87189225599075</v>
+        <v>12.04226501245909</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>11.86236147185508</v>
+        <v>11.78686267223674</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9.338478094281047</v>
+        <v>9.422865182275512</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>17.36618753465797</v>
+        <v>17.42296369399097</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>8.419816357534708</v>
+        <v>8.256512120568695</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>7.472833055039676</v>
+        <v>7.576573214853731</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>14.20695247012362</v>
+        <v>14.19432536044361</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.3007336436681065</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6412884300514373</v>
+        <v>0.6412884300514371</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.3611215278504702</v>
@@ -2053,7 +2053,7 @@
         <v>0.3215204173600818</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.6745613633676799</v>
+        <v>0.6745613633676802</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1500511295947234</v>
+        <v>0.1449211578033275</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2181399797074457</v>
+        <v>0.2080008055411202</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.5401799694852141</v>
+        <v>0.5354643098357672</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.3027508396815621</v>
+        <v>0.3008420091616588</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2000642780239365</v>
+        <v>0.2006963381474504</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5317193918928097</v>
+        <v>0.5279697768926171</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.274288685827838</v>
+        <v>0.2696405909884727</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2380217758174508</v>
+        <v>0.2424677085256158</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.5804088224520256</v>
+        <v>0.5826769735285818</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4297628621779677</v>
+        <v>0.4328780462770883</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5111386381739994</v>
+        <v>0.5133540008721356</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.9166009201435676</v>
+        <v>0.9250712164110233</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5213842035503126</v>
+        <v>0.5155935722015286</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.409608231691833</v>
+        <v>0.4119869666093372</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7674155365350384</v>
+        <v>0.7650340955810594</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.468609101175913</v>
+        <v>0.453001408529847</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4058412316468038</v>
+        <v>0.4175283207939902</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.7868491308987906</v>
+        <v>0.778074065389378</v>
       </c>
     </row>
     <row r="46">
